--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1309.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1309.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.017806902755047</v>
+        <v>1.085905909538269</v>
       </c>
       <c r="B1">
-        <v>2.538353899593607</v>
+        <v>2.149283170700073</v>
       </c>
       <c r="C1">
-        <v>5.440273393057035</v>
+        <v>9.398229598999023</v>
       </c>
       <c r="D1">
-        <v>2.196907522697314</v>
+        <v>1.026668548583984</v>
       </c>
       <c r="E1">
-        <v>1.249684992293815</v>
+        <v>1.088949918746948</v>
       </c>
     </row>
   </sheetData>
